--- a/expense_list2016/201608_expense_list.xlsx
+++ b/expense_list2016/201608_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
   <si>
     <t>nid</t>
   </si>
@@ -1950,6 +1950,153 @@
   </si>
   <si>
     <t>외국인정책팀장 외 1</t>
+  </si>
+  <si>
+    <t>2016년 8월 도시재생본부 도시활성화과 업무추진비내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10855726</t>
+  </si>
+  <si>
+    <t>도시재생본부</t>
+  </si>
+  <si>
+    <t>도시활성화과</t>
+  </si>
+  <si>
+    <t>2016-12-14 12:19</t>
+  </si>
+  <si>
+    <t>고려보쌈</t>
+  </si>
+  <si>
+    <t>도시활성화과장외4명</t>
+  </si>
+  <si>
+    <t>2016-08-26 12:26</t>
+  </si>
+  <si>
+    <t>마마스(중구 다동)</t>
+  </si>
+  <si>
+    <t>체비지관리팀장외 자치구담당</t>
+  </si>
+  <si>
+    <t>2016-08-31 13:31</t>
+  </si>
+  <si>
+    <t>서울시청 매점</t>
+  </si>
+  <si>
+    <t>도시활성화과직원외</t>
+  </si>
+  <si>
+    <t>2016-08-29 18:51</t>
+  </si>
+  <si>
+    <t>배제반점(중구 서소문동)</t>
+  </si>
+  <si>
+    <t>개발팀장외3명</t>
+  </si>
+  <si>
+    <t>2016-08-26 12:52</t>
+  </si>
+  <si>
+    <t>참숯골(중구 무교로)</t>
+  </si>
+  <si>
+    <t>도시활성화괴직원</t>
+  </si>
+  <si>
+    <t>2016년 8월 주택정책과 업추비 공개</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10888910</t>
+  </si>
+  <si>
+    <t>주택건축국</t>
+  </si>
+  <si>
+    <t>주택정책과</t>
+  </si>
+  <si>
+    <t>2016-08-31 12:15</t>
+  </si>
+  <si>
+    <t>행복한하루소바</t>
+  </si>
+  <si>
+    <t>주택정책팀장 외 2명</t>
+  </si>
+  <si>
+    <t>2016-08-31 13:21</t>
+  </si>
+  <si>
+    <t>제주본가</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 9명</t>
+  </si>
+  <si>
+    <t>2016-08-31 14:43</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 10명</t>
+  </si>
+  <si>
+    <t>2016-08-30 20:53</t>
+  </si>
+  <si>
+    <t>대원집</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 6명</t>
+  </si>
+  <si>
+    <t>2016-08-30 13:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주택정책과장 외 7명 </t>
+  </si>
+  <si>
+    <t>2016-08-25 12:36</t>
+  </si>
+  <si>
+    <t>롯데쇼핑주식회사</t>
+  </si>
+  <si>
+    <t>2016-08-23 12:24</t>
+  </si>
+  <si>
+    <t>청주</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 12명</t>
+  </si>
+  <si>
+    <t>2016-08-18 13:05</t>
+  </si>
+  <si>
+    <t>남포면옥</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 7명</t>
+  </si>
+  <si>
+    <t>2016-08-18 12:23</t>
+  </si>
+  <si>
+    <t>열빈（광화문점）</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 3명</t>
+  </si>
+  <si>
+    <t>2016-08-16 12:15</t>
+  </si>
+  <si>
+    <t>김앤장（Ｋｉｍ＆Ｊａ</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R287"/>
+  <dimension ref="A1:R303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -15682,6 +15829,738 @@
       </c>
       <c r="R287">
         <v>4500</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
+      <c r="A288">
+        <v>10855726</v>
+      </c>
+      <c r="B288" t="s">
+        <v>645</v>
+      </c>
+      <c r="C288" t="s">
+        <v>646</v>
+      </c>
+      <c r="D288" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" t="s">
+        <v>647</v>
+      </c>
+      <c r="F288" t="s">
+        <v>648</v>
+      </c>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288">
+        <v>2016</v>
+      </c>
+      <c r="J288">
+        <v>8</v>
+      </c>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288" t="s">
+        <v>649</v>
+      </c>
+      <c r="O288" t="s">
+        <v>650</v>
+      </c>
+      <c r="P288" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>26</v>
+      </c>
+      <c r="R288">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289">
+        <v>10855726</v>
+      </c>
+      <c r="B289" t="s">
+        <v>645</v>
+      </c>
+      <c r="C289" t="s">
+        <v>646</v>
+      </c>
+      <c r="D289" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" t="s">
+        <v>647</v>
+      </c>
+      <c r="F289" t="s">
+        <v>648</v>
+      </c>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289">
+        <v>2016</v>
+      </c>
+      <c r="J289">
+        <v>8</v>
+      </c>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289" t="s">
+        <v>652</v>
+      </c>
+      <c r="O289" t="s">
+        <v>653</v>
+      </c>
+      <c r="P289" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>26</v>
+      </c>
+      <c r="R289">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
+      <c r="A290">
+        <v>10855726</v>
+      </c>
+      <c r="B290" t="s">
+        <v>645</v>
+      </c>
+      <c r="C290" t="s">
+        <v>646</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="s">
+        <v>647</v>
+      </c>
+      <c r="F290" t="s">
+        <v>648</v>
+      </c>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290">
+        <v>2016</v>
+      </c>
+      <c r="J290">
+        <v>8</v>
+      </c>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290" t="s">
+        <v>655</v>
+      </c>
+      <c r="O290" t="s">
+        <v>656</v>
+      </c>
+      <c r="P290" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>26</v>
+      </c>
+      <c r="R290">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
+      <c r="A291">
+        <v>10855726</v>
+      </c>
+      <c r="B291" t="s">
+        <v>645</v>
+      </c>
+      <c r="C291" t="s">
+        <v>646</v>
+      </c>
+      <c r="D291" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" t="s">
+        <v>647</v>
+      </c>
+      <c r="F291" t="s">
+        <v>648</v>
+      </c>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291">
+        <v>2016</v>
+      </c>
+      <c r="J291">
+        <v>8</v>
+      </c>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291" t="s">
+        <v>658</v>
+      </c>
+      <c r="O291" t="s">
+        <v>659</v>
+      </c>
+      <c r="P291" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>26</v>
+      </c>
+      <c r="R291">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
+      <c r="A292">
+        <v>10855726</v>
+      </c>
+      <c r="B292" t="s">
+        <v>645</v>
+      </c>
+      <c r="C292" t="s">
+        <v>646</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="s">
+        <v>647</v>
+      </c>
+      <c r="F292" t="s">
+        <v>648</v>
+      </c>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292">
+        <v>2016</v>
+      </c>
+      <c r="J292">
+        <v>8</v>
+      </c>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292" t="s">
+        <v>661</v>
+      </c>
+      <c r="O292" t="s">
+        <v>662</v>
+      </c>
+      <c r="P292" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>26</v>
+      </c>
+      <c r="R292">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
+      <c r="A293">
+        <v>10888910</v>
+      </c>
+      <c r="B293" t="s">
+        <v>664</v>
+      </c>
+      <c r="C293" t="s">
+        <v>665</v>
+      </c>
+      <c r="D293" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" t="s">
+        <v>666</v>
+      </c>
+      <c r="F293" t="s">
+        <v>667</v>
+      </c>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293">
+        <v>2016</v>
+      </c>
+      <c r="J293">
+        <v>8</v>
+      </c>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293" t="s">
+        <v>668</v>
+      </c>
+      <c r="O293" t="s">
+        <v>669</v>
+      </c>
+      <c r="P293" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>26</v>
+      </c>
+      <c r="R293">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
+      <c r="A294">
+        <v>10888910</v>
+      </c>
+      <c r="B294" t="s">
+        <v>664</v>
+      </c>
+      <c r="C294" t="s">
+        <v>665</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="s">
+        <v>666</v>
+      </c>
+      <c r="F294" t="s">
+        <v>667</v>
+      </c>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294">
+        <v>2016</v>
+      </c>
+      <c r="J294">
+        <v>8</v>
+      </c>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294" t="s">
+        <v>671</v>
+      </c>
+      <c r="O294" t="s">
+        <v>672</v>
+      </c>
+      <c r="P294" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>26</v>
+      </c>
+      <c r="R294">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
+      <c r="A295">
+        <v>10888910</v>
+      </c>
+      <c r="B295" t="s">
+        <v>664</v>
+      </c>
+      <c r="C295" t="s">
+        <v>665</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="s">
+        <v>666</v>
+      </c>
+      <c r="F295" t="s">
+        <v>667</v>
+      </c>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295">
+        <v>2016</v>
+      </c>
+      <c r="J295">
+        <v>8</v>
+      </c>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295" t="s">
+        <v>674</v>
+      </c>
+      <c r="O295" t="s">
+        <v>637</v>
+      </c>
+      <c r="P295" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>26</v>
+      </c>
+      <c r="R295">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
+      <c r="A296">
+        <v>10888910</v>
+      </c>
+      <c r="B296" t="s">
+        <v>664</v>
+      </c>
+      <c r="C296" t="s">
+        <v>665</v>
+      </c>
+      <c r="D296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" t="s">
+        <v>666</v>
+      </c>
+      <c r="F296" t="s">
+        <v>667</v>
+      </c>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296">
+        <v>2016</v>
+      </c>
+      <c r="J296">
+        <v>8</v>
+      </c>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296" t="s">
+        <v>676</v>
+      </c>
+      <c r="O296" t="s">
+        <v>677</v>
+      </c>
+      <c r="P296" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>26</v>
+      </c>
+      <c r="R296">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
+      <c r="A297">
+        <v>10888910</v>
+      </c>
+      <c r="B297" t="s">
+        <v>664</v>
+      </c>
+      <c r="C297" t="s">
+        <v>665</v>
+      </c>
+      <c r="D297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" t="s">
+        <v>666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>667</v>
+      </c>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297">
+        <v>2016</v>
+      </c>
+      <c r="J297">
+        <v>8</v>
+      </c>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297" t="s">
+        <v>679</v>
+      </c>
+      <c r="O297" t="s">
+        <v>637</v>
+      </c>
+      <c r="P297" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>26</v>
+      </c>
+      <c r="R297">
+        <v>209500</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
+      <c r="A298">
+        <v>10888910</v>
+      </c>
+      <c r="B298" t="s">
+        <v>664</v>
+      </c>
+      <c r="C298" t="s">
+        <v>665</v>
+      </c>
+      <c r="D298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="s">
+        <v>666</v>
+      </c>
+      <c r="F298" t="s">
+        <v>667</v>
+      </c>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298">
+        <v>2016</v>
+      </c>
+      <c r="J298">
+        <v>8</v>
+      </c>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="N298" t="s">
+        <v>681</v>
+      </c>
+      <c r="O298" t="s">
+        <v>682</v>
+      </c>
+      <c r="P298"/>
+      <c r="Q298" t="s">
+        <v>26</v>
+      </c>
+      <c r="R298">
+        <v>32930</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
+      <c r="A299">
+        <v>10888910</v>
+      </c>
+      <c r="B299" t="s">
+        <v>664</v>
+      </c>
+      <c r="C299" t="s">
+        <v>665</v>
+      </c>
+      <c r="D299" t="s">
+        <v>20</v>
+      </c>
+      <c r="E299" t="s">
+        <v>666</v>
+      </c>
+      <c r="F299" t="s">
+        <v>667</v>
+      </c>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299">
+        <v>2016</v>
+      </c>
+      <c r="J299">
+        <v>8</v>
+      </c>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299" t="s">
+        <v>683</v>
+      </c>
+      <c r="O299" t="s">
+        <v>684</v>
+      </c>
+      <c r="P299" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>26</v>
+      </c>
+      <c r="R299">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
+      <c r="A300">
+        <v>10888910</v>
+      </c>
+      <c r="B300" t="s">
+        <v>664</v>
+      </c>
+      <c r="C300" t="s">
+        <v>665</v>
+      </c>
+      <c r="D300" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" t="s">
+        <v>666</v>
+      </c>
+      <c r="F300" t="s">
+        <v>667</v>
+      </c>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300">
+        <v>2016</v>
+      </c>
+      <c r="J300">
+        <v>8</v>
+      </c>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="N300" t="s">
+        <v>686</v>
+      </c>
+      <c r="O300" t="s">
+        <v>687</v>
+      </c>
+      <c r="P300" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>26</v>
+      </c>
+      <c r="R300">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
+      <c r="A301">
+        <v>10888910</v>
+      </c>
+      <c r="B301" t="s">
+        <v>664</v>
+      </c>
+      <c r="C301" t="s">
+        <v>665</v>
+      </c>
+      <c r="D301" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301" t="s">
+        <v>666</v>
+      </c>
+      <c r="F301" t="s">
+        <v>667</v>
+      </c>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301">
+        <v>2016</v>
+      </c>
+      <c r="J301">
+        <v>8</v>
+      </c>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="N301" t="s">
+        <v>689</v>
+      </c>
+      <c r="O301" t="s">
+        <v>690</v>
+      </c>
+      <c r="P301" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>26</v>
+      </c>
+      <c r="R301">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
+      <c r="A302">
+        <v>10888910</v>
+      </c>
+      <c r="B302" t="s">
+        <v>664</v>
+      </c>
+      <c r="C302" t="s">
+        <v>665</v>
+      </c>
+      <c r="D302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="s">
+        <v>666</v>
+      </c>
+      <c r="F302" t="s">
+        <v>667</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302">
+        <v>2016</v>
+      </c>
+      <c r="J302">
+        <v>8</v>
+      </c>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302" t="s">
+        <v>692</v>
+      </c>
+      <c r="O302" t="s">
+        <v>693</v>
+      </c>
+      <c r="P302" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>26</v>
+      </c>
+      <c r="R302">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="A303">
+        <v>10888910</v>
+      </c>
+      <c r="B303" t="s">
+        <v>664</v>
+      </c>
+      <c r="C303" t="s">
+        <v>665</v>
+      </c>
+      <c r="D303" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" t="s">
+        <v>666</v>
+      </c>
+      <c r="F303" t="s">
+        <v>667</v>
+      </c>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303">
+        <v>2016</v>
+      </c>
+      <c r="J303">
+        <v>8</v>
+      </c>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303" t="s">
+        <v>548</v>
+      </c>
+      <c r="O303" t="s">
+        <v>682</v>
+      </c>
+      <c r="P303"/>
+      <c r="Q303" t="s">
+        <v>26</v>
+      </c>
+      <c r="R303">
+        <v>20050</v>
       </c>
     </row>
   </sheetData>
